--- a/retrieval-results.xlsx
+++ b/retrieval-results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="color" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="36">
   <si>
     <t xml:space="preserve">Distance Matrix</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t xml:space="preserve">Standard Deviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cluster</t>
   </si>
 </sst>
 </file>
@@ -252,12 +255,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -367,6 +370,17 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -473,6 +487,17 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -579,6 +604,17 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -685,6 +721,17 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -791,6 +838,17 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -897,6 +955,17 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -1003,6 +1072,17 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -1073,11 +1153,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="10696738"/>
-        <c:axId val="32635657"/>
+        <c:axId val="56302349"/>
+        <c:axId val="89551188"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="10696738"/>
+        <c:axId val="56302349"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,12 +1185,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32635657"/>
+        <c:crossAx val="89551188"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="32635657"/>
+        <c:axId val="89551188"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,7 +1227,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10696738"/>
+        <c:crossAx val="56302349"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1206,9 +1286,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>651240</xdr:colOff>
+      <xdr:colOff>650880</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>156960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1216,8 +1296,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9641160" y="1632240"/>
-        <a:ext cx="5758920" cy="3239280"/>
+        <a:off x="9641880" y="1632240"/>
+        <a:ext cx="5758560" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1236,9 +1316,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>134280</xdr:colOff>
+      <xdr:colOff>133920</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>48240</xdr:rowOff>
+      <xdr:rowOff>47880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1251,8 +1331,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9550800" y="5064120"/>
-          <a:ext cx="3706920" cy="5550480"/>
+          <a:off x="9551520" y="5064120"/>
+          <a:ext cx="3706560" cy="5550120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1274,8 +1354,8 @@
   </sheetPr>
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B34" activeCellId="1" sqref="A48:E48 B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1285,7 +1365,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.8"/>
@@ -3014,10 +3094,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3942,6 +4022,182 @@
         <v>0.9567</v>
       </c>
     </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="7" t="n">
+        <v>0.9073</v>
+      </c>
+      <c r="H42" s="7" t="n">
+        <v>0.8969</v>
+      </c>
+      <c r="I42" s="7" t="n">
+        <v>0.8956</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" s="7" t="n">
+        <v>0.9073</v>
+      </c>
+      <c r="H43" s="7" t="n">
+        <v>0.8969</v>
+      </c>
+      <c r="I43" s="7" t="n">
+        <v>0.8956</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" s="7" t="n">
+        <v>0.9073</v>
+      </c>
+      <c r="H44" s="7" t="n">
+        <v>0.8969</v>
+      </c>
+      <c r="I44" s="7" t="n">
+        <v>0.8956</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" s="7" t="n">
+        <v>0.9073</v>
+      </c>
+      <c r="H45" s="7" t="n">
+        <v>0.8969</v>
+      </c>
+      <c r="I45" s="7" t="n">
+        <v>0.8956</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="4" t="n">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/retrieval-results.xlsx
+++ b/retrieval-results.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="color" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="grayscale" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="distortions" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="kth-tips" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="40">
   <si>
     <t xml:space="preserve">Distance Matrix</t>
   </si>
@@ -113,6 +115,12 @@
     <t xml:space="preserve">TRUE</t>
   </si>
   <si>
+    <t xml:space="preserve">Dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curet</t>
+  </si>
+  <si>
     <t xml:space="preserve">Variance</t>
   </si>
   <si>
@@ -129,6 +137,12 @@
   </si>
   <si>
     <t xml:space="preserve">Cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exemplar Cnt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KTH-TIPS</t>
   </si>
 </sst>
 </file>
@@ -216,7 +230,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -251,6 +265,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -325,7 +343,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1153,11 +1171,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="56302349"/>
-        <c:axId val="89551188"/>
+        <c:axId val="79060447"/>
+        <c:axId val="61450581"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="56302349"/>
+        <c:axId val="79060447"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1185,12 +1203,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89551188"/>
+        <c:crossAx val="61450581"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89551188"/>
+        <c:axId val="61450581"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1227,7 +1245,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56302349"/>
+        <c:crossAx val="79060447"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1286,9 +1304,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>650880</xdr:colOff>
+      <xdr:colOff>649080</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1296,8 +1314,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9641880" y="1632240"/>
-        <a:ext cx="5758560" cy="3238920"/>
+        <a:off x="9642240" y="1632240"/>
+        <a:ext cx="5757120" cy="3237120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1316,9 +1334,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>133920</xdr:colOff>
+      <xdr:colOff>132120</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1331,8 +1349,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9551520" y="5064120"/>
-          <a:ext cx="3706560" cy="5550120"/>
+          <a:off x="9551880" y="5064120"/>
+          <a:ext cx="3704760" cy="5548320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1354,8 +1372,8 @@
   </sheetPr>
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="1" sqref="A48:E48 B34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3094,1108 +3112,1253 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48:E48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H92" activeCellId="0" sqref="H92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="17.18"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="15.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="15.19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="7" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="7.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="17.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="15.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="15.19"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="8" style="4" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="3" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>30</v>
+      <c r="A2" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" s="8" t="n">
+        <v>0.7079</v>
+      </c>
+      <c r="I2" s="8" t="n">
+        <v>0.6805</v>
+      </c>
+      <c r="J2" s="8" t="n">
+        <v>0.674</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <v>0.7238</v>
+      </c>
+      <c r="I3" s="8" t="n">
+        <v>0.6665</v>
+      </c>
+      <c r="J3" s="8" t="n">
+        <v>0.669</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>0.7079</v>
-      </c>
-      <c r="H2" s="7" t="n">
-        <v>0.6805</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>0.674</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" s="7" t="n">
-        <v>0.7238</v>
-      </c>
-      <c r="H3" s="7" t="n">
-        <v>0.6665</v>
-      </c>
-      <c r="I3" s="7" t="n">
-        <v>0.669</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="8" t="n">
+        <v>34</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="H5" s="8" t="n">
         <v>0.6964</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="I5" s="8" t="n">
         <v>0.6694</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="J5" s="8" t="n">
         <v>0.6635</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>18</v>
+      <c r="A6" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>0.7062</v>
+      </c>
+      <c r="I6" s="8" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="J6" s="8" t="n">
+        <v>0.6381</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="8" t="n">
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="7" t="n">
-        <v>0.7062</v>
-      </c>
-      <c r="H6" s="7" t="n">
-        <v>0.631</v>
-      </c>
-      <c r="I6" s="7" t="n">
-        <v>0.6381</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="H8" s="8" t="n">
+        <v>0.8079</v>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v>0.7876</v>
+      </c>
+      <c r="J8" s="8" t="n">
+        <v>0.7841</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="8" t="n">
+      <c r="C11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" s="7" t="n">
-        <v>0.8079</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <v>0.7876</v>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v>0.7841</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="H11" s="8" t="n">
+        <v>0.8068</v>
+      </c>
+      <c r="I11" s="8" t="n">
+        <v>0.7884</v>
+      </c>
+      <c r="J11" s="8" t="n">
+        <v>0.7854</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="8" t="n">
+      <c r="C14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="8" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="H14" s="8" t="n">
+        <v>0.8172</v>
+      </c>
+      <c r="I14" s="8" t="n">
+        <v>0.8044</v>
+      </c>
+      <c r="J14" s="8" t="n">
+        <v>0.8074</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" s="8" t="n">
+        <v>0.9057</v>
+      </c>
+      <c r="I15" s="8" t="n">
+        <v>0.8961</v>
+      </c>
+      <c r="J15" s="8" t="n">
+        <v>0.895</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" s="8" t="n">
+        <v>0.8162</v>
+      </c>
+      <c r="I16" s="8" t="n">
+        <v>0.8051</v>
+      </c>
+      <c r="J16" s="8" t="n">
+        <v>0.8143</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G11" s="7" t="n">
-        <v>0.8068</v>
-      </c>
-      <c r="H11" s="7" t="n">
-        <v>0.7884</v>
-      </c>
-      <c r="I11" s="7" t="n">
-        <v>0.7854</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G14" s="7" t="n">
-        <v>0.8172</v>
-      </c>
-      <c r="H14" s="7" t="n">
-        <v>0.8044</v>
-      </c>
-      <c r="I14" s="7" t="n">
-        <v>0.8074</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G15" s="7" t="n">
-        <v>0.9057</v>
-      </c>
-      <c r="H15" s="7" t="n">
-        <v>0.8961</v>
-      </c>
-      <c r="I15" s="7" t="n">
-        <v>0.895</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G16" s="7" t="n">
-        <v>0.8162</v>
-      </c>
-      <c r="H16" s="7" t="n">
-        <v>0.8051</v>
-      </c>
-      <c r="I16" s="7" t="n">
-        <v>0.8143</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G18" s="7" t="n">
+      <c r="H18" s="8" t="n">
         <v>0.8066</v>
       </c>
-      <c r="H18" s="7" t="n">
+      <c r="I18" s="8" t="n">
         <v>0.7956</v>
       </c>
-      <c r="I18" s="7" t="n">
+      <c r="J18" s="8" t="n">
         <v>0.793</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>18</v>
+      <c r="A19" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G19" s="7" t="n">
+      <c r="H19" s="8" t="n">
         <v>0.9065</v>
       </c>
-      <c r="H19" s="7" t="n">
+      <c r="I19" s="8" t="n">
         <v>0.896</v>
       </c>
-      <c r="I19" s="7" t="n">
+      <c r="J19" s="8" t="n">
         <v>0.8953</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>34</v>
+      <c r="A20" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G20" s="7" t="n">
+      <c r="H20" s="8" t="n">
         <v>0.817</v>
       </c>
-      <c r="H20" s="7" t="n">
+      <c r="I20" s="8" t="n">
         <v>0.8044</v>
       </c>
-      <c r="I20" s="7" t="n">
+      <c r="J20" s="8" t="n">
         <v>0.8009</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>30</v>
+      <c r="A22" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G22" s="7" t="n">
+      <c r="H22" s="8" t="n">
         <v>0.8821</v>
       </c>
-      <c r="H22" s="7" t="n">
+      <c r="I22" s="8" t="n">
         <v>0.8701</v>
       </c>
-      <c r="I22" s="7" t="n">
+      <c r="J22" s="8" t="n">
         <v>0.8688</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>18</v>
+      <c r="A23" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G23" s="7" t="n">
+      <c r="H23" s="8" t="n">
         <v>0.9624</v>
       </c>
-      <c r="H23" s="7" t="n">
+      <c r="I23" s="8" t="n">
         <v>0.9579</v>
       </c>
-      <c r="I23" s="7" t="n">
+      <c r="J23" s="8" t="n">
         <v>0.9576</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
-        <v>34</v>
+      <c r="A24" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G24" s="7" t="n">
+      <c r="H24" s="8" t="n">
         <v>0.8652</v>
       </c>
-      <c r="H24" s="7" t="n">
+      <c r="I24" s="8" t="n">
         <v>0.8543</v>
       </c>
-      <c r="I24" s="7" t="n">
+      <c r="J24" s="8" t="n">
         <v>0.8521</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
-        <v>30</v>
+      <c r="A26" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G26" s="7" t="n">
+      <c r="H26" s="8" t="n">
         <v>0.8716</v>
       </c>
-      <c r="H26" s="7" t="n">
+      <c r="I26" s="8" t="n">
         <v>0.8588</v>
       </c>
-      <c r="I26" s="7" t="n">
+      <c r="J26" s="8" t="n">
         <v>0.8573</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
-        <v>18</v>
+      <c r="A27" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G27" s="7" t="n">
+      <c r="H27" s="8" t="n">
         <v>0.9586</v>
       </c>
-      <c r="H27" s="7" t="n">
+      <c r="I27" s="8" t="n">
         <v>0.9544</v>
       </c>
-      <c r="I27" s="7" t="n">
+      <c r="J27" s="8" t="n">
         <v>0.9536</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
-        <v>34</v>
+      <c r="A28" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G28" s="7" t="n">
+      <c r="H28" s="8" t="n">
         <v>0.8489</v>
       </c>
-      <c r="H28" s="7" t="n">
+      <c r="I28" s="8" t="n">
         <v>0.8377</v>
       </c>
-      <c r="I28" s="7" t="n">
+      <c r="J28" s="8" t="n">
         <v>0.8354</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
-        <v>18</v>
+      <c r="A30" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G30" s="7" t="n">
+      <c r="H30" s="8" t="n">
         <v>0.9073</v>
       </c>
-      <c r="H30" s="7" t="n">
+      <c r="I30" s="8" t="n">
         <v>0.8969</v>
       </c>
-      <c r="I30" s="7" t="n">
+      <c r="J30" s="8" t="n">
         <v>0.8956</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
-        <v>18</v>
+      <c r="A31" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="G31" s="7" t="n">
+      <c r="H31" s="8" t="n">
         <v>0.9277</v>
       </c>
-      <c r="H31" s="7" t="n">
+      <c r="I31" s="8" t="n">
         <v>0.9216</v>
       </c>
-      <c r="I31" s="7" t="n">
+      <c r="J31" s="8" t="n">
         <v>0.9259</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
-        <v>18</v>
+      <c r="A32" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="G32" s="7" t="n">
+      <c r="H32" s="8" t="n">
         <v>0.9519</v>
       </c>
-      <c r="H32" s="7" t="n">
+      <c r="I32" s="8" t="n">
         <v>0.9496</v>
       </c>
-      <c r="I32" s="7" t="n">
+      <c r="J32" s="8" t="n">
         <v>0.9488</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
-        <v>18</v>
+      <c r="A33" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="G33" s="7" t="n">
+      <c r="H33" s="8" t="n">
         <v>0.943</v>
       </c>
-      <c r="H33" s="7" t="n">
+      <c r="I33" s="8" t="n">
         <v>0.9398</v>
       </c>
-      <c r="I33" s="7" t="n">
+      <c r="J33" s="8" t="n">
         <v>0.9505</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
-        <v>18</v>
+      <c r="A34" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G34" s="7" t="n">
+      <c r="H34" s="8" t="n">
         <v>0.9624</v>
       </c>
-      <c r="H34" s="7" t="n">
+      <c r="I34" s="8" t="n">
         <v>0.9579</v>
       </c>
-      <c r="I34" s="7" t="n">
+      <c r="J34" s="8" t="n">
         <v>0.9576</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
-        <v>18</v>
+      <c r="A35" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="G35" s="7" t="n">
+      <c r="H35" s="8" t="n">
         <v>0.9503</v>
       </c>
-      <c r="H35" s="7" t="n">
+      <c r="I35" s="8" t="n">
         <v>0.9488</v>
       </c>
-      <c r="I35" s="7" t="n">
+      <c r="J35" s="8" t="n">
         <v>0.9482</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
-        <v>18</v>
+      <c r="A36" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="G36" s="7" t="n">
+      <c r="H36" s="8" t="n">
         <v>0.9572</v>
       </c>
-      <c r="H36" s="7" t="n">
+      <c r="I36" s="8" t="n">
         <v>0.955</v>
       </c>
-      <c r="I36" s="7" t="n">
+      <c r="J36" s="8" t="n">
         <v>0.9604</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
-        <v>18</v>
+      <c r="A37" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="G37" s="7" t="n">
+      <c r="H37" s="8" t="n">
         <v>0.9611</v>
       </c>
-      <c r="H37" s="7" t="n">
+      <c r="I37" s="8" t="n">
         <v>0.9588</v>
       </c>
-      <c r="I37" s="7" t="n">
+      <c r="J37" s="8" t="n">
         <v>0.9586</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
-        <v>18</v>
+      <c r="A38" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="G38" s="7" t="n">
+      <c r="H38" s="8" t="n">
         <v>0.9538</v>
       </c>
-      <c r="H38" s="7" t="n">
+      <c r="I38" s="8" t="n">
         <v>0.9514</v>
       </c>
-      <c r="I38" s="7" t="n">
+      <c r="J38" s="8" t="n">
         <v>0.9509</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
-        <v>18</v>
+      <c r="A39" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="G39" s="7" t="n">
+      <c r="H39" s="8" t="n">
         <v>0.9602</v>
       </c>
-      <c r="H39" s="7" t="n">
+      <c r="I39" s="8" t="n">
         <v>0.9581</v>
       </c>
-      <c r="I39" s="7" t="n">
+      <c r="J39" s="8" t="n">
         <v>0.9579</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
-        <v>18</v>
+      <c r="A40" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="G40" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="H40" s="8" t="n">
         <v>0.9642</v>
       </c>
-      <c r="H40" s="7" t="n">
+      <c r="I40" s="8" t="n">
         <v>0.9623</v>
       </c>
-      <c r="I40" s="7" t="n">
+      <c r="J40" s="8" t="n">
         <v>0.9567</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
-        <v>18</v>
+      <c r="A42" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G42" s="7" t="n">
-        <v>0.9073</v>
-      </c>
-      <c r="H42" s="7" t="n">
-        <v>0.8969</v>
-      </c>
-      <c r="I42" s="7" t="n">
-        <v>0.8956</v>
+      <c r="H42" s="8" t="n">
+        <v>0.90647461</v>
+      </c>
+      <c r="I42" s="8" t="n">
+        <v>0.89583176</v>
+      </c>
+      <c r="J42" s="8" t="n">
+        <v>0.89497729</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
-        <v>18</v>
+      <c r="A43" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="G43" s="7" t="n">
-        <v>0.9073</v>
-      </c>
-      <c r="H43" s="7" t="n">
-        <v>0.8969</v>
-      </c>
-      <c r="I43" s="7" t="n">
-        <v>0.8956</v>
+      <c r="H43" s="8" t="n">
+        <v>0.94512616</v>
+      </c>
+      <c r="I43" s="8" t="n">
+        <v>0.94140553</v>
+      </c>
+      <c r="J43" s="8" t="n">
+        <v>0.9582679</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
-        <v>18</v>
+      <c r="A44" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="G44" s="7" t="n">
-        <v>0.9073</v>
-      </c>
-      <c r="H44" s="7" t="n">
-        <v>0.8969</v>
-      </c>
-      <c r="I44" s="7" t="n">
-        <v>0.8956</v>
+      <c r="H44" s="8" t="n">
+        <v>0.95551097</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>0.95265653</v>
+      </c>
+      <c r="J44" s="8" t="n">
+        <v>0.95220165</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
-        <v>18</v>
+      <c r="A45" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="G45" s="7" t="n">
-        <v>0.9073</v>
-      </c>
-      <c r="H45" s="7" t="n">
-        <v>0.8969</v>
-      </c>
-      <c r="I45" s="7" t="n">
-        <v>0.8956</v>
+      <c r="H45" s="9" t="n">
+        <v>0.96039979</v>
+      </c>
+      <c r="I45" s="9" t="n">
+        <v>0.95900893</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>0.9582679</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
-        <v>18</v>
+      <c r="A46" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="4" t="n">
         <v>5</v>
       </c>
+      <c r="H46" s="4" t="n">
+        <v>0.96182441</v>
+      </c>
+      <c r="I46" s="4" t="n">
+        <v>0.95951189</v>
+      </c>
+      <c r="J46" s="4" t="n">
+        <v>0.95903661</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
-        <v>18</v>
+      <c r="A47" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="4" t="n">
         <v>10</v>
       </c>
+      <c r="H47" s="4" t="n">
+        <v>0.97369208</v>
+      </c>
+      <c r="I47" s="4" t="n">
+        <v>0.97195884</v>
+      </c>
+      <c r="J47" s="4" t="n">
+        <v>0.97200312</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
-        <v>18</v>
+      <c r="A48" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="4" t="n">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="H48" s="4" t="n">
+        <v>0.97845774</v>
+      </c>
+      <c r="I48" s="4" t="n">
+        <v>0.97764634</v>
+      </c>
+      <c r="J48" s="4" t="n">
+        <v>0.97751639</v>
       </c>
     </row>
   </sheetData>
@@ -4207,4 +4370,582 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J45"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.97"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="n">
+        <v>0.9055</v>
+      </c>
+      <c r="I2" s="8" t="n">
+        <v>0.8869</v>
+      </c>
+      <c r="J2" s="8" t="n">
+        <v>0.8914</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <v>0.9106</v>
+      </c>
+      <c r="I3" s="8" t="n">
+        <v>0.8986</v>
+      </c>
+      <c r="J3" s="8" t="n">
+        <v>0.9009</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" s="8" t="n">
+        <v>0.9171</v>
+      </c>
+      <c r="I4" s="8" t="n">
+        <v>0.9056</v>
+      </c>
+      <c r="J4" s="8" t="n">
+        <v>0.9075</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <v>0.9194</v>
+      </c>
+      <c r="I5" s="8" t="n">
+        <v>0.9075</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>0.9099</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="I6" s="8" t="n">
+        <v>0.9099</v>
+      </c>
+      <c r="J6" s="8" t="n">
+        <v>0.9119</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <v>0.9328</v>
+      </c>
+      <c r="I7" s="8" t="n">
+        <v>0.9237</v>
+      </c>
+      <c r="J7" s="8" t="n">
+        <v>0.9248</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="H8" s="8" t="n">
+        <v>0.9226</v>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v>0.9138</v>
+      </c>
+      <c r="J8" s="8" t="n">
+        <v>0.915</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v>0.9119</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <v>0.8924</v>
+      </c>
+      <c r="J10" s="8" t="n">
+        <v>0.8959</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="8" t="n">
+        <v>0.8979</v>
+      </c>
+      <c r="I11" s="8" t="n">
+        <v>0.8828</v>
+      </c>
+      <c r="J11" s="8" t="n">
+        <v>0.8864</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" s="8" t="n">
+        <v>0.9084</v>
+      </c>
+      <c r="I12" s="8" t="n">
+        <v>0.8936</v>
+      </c>
+      <c r="J12" s="8" t="n">
+        <v>0.8969</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" s="9" t="n">
+        <v>0.9103</v>
+      </c>
+      <c r="I13" s="9" t="n">
+        <v>0.8977</v>
+      </c>
+      <c r="J13" s="9" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>0.9166</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>0.9035</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <v>0.9066</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>0.9179</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <v>0.9099</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <v>0.9107</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>0.8905</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>0.8782</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <v>0.8785</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>